--- a/Konakart/src/test/resources/testdata/positivesearchdata.xlsx
+++ b/Konakart/src/test/resources/testdata/positivesearchdata.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>categories</t>
-  </si>
-  <si>
-    <t>search item</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>All</t>
@@ -29,22 +32,28 @@
     <t>samsung</t>
   </si>
   <si>
+    <t>1-4 of 4 products</t>
+  </si>
+  <si>
     <t>Computer Peripherals</t>
   </si>
   <si>
-    <t>grapics cards</t>
+    <t>Bundle Saver</t>
+  </si>
+  <si>
+    <t>1-1 of 1 products</t>
   </si>
   <si>
     <t>Games</t>
   </si>
   <si>
-    <t>blackops2</t>
+    <t>call of duty</t>
   </si>
   <si>
     <t>DVD Movies</t>
   </si>
   <si>
-    <t>a bug's life</t>
+    <t>A Bug's Life</t>
   </si>
   <si>
     <t>Software</t>
@@ -56,19 +65,19 @@
     <t>Electronics</t>
   </si>
   <si>
-    <t>cameras</t>
+    <t>Nikon D5100 SLR</t>
   </si>
   <si>
     <t>Home &amp; Garden</t>
   </si>
   <si>
-    <t>clocks</t>
+    <t>De'Longhi BCO 410</t>
   </si>
   <si>
     <t>Gifts</t>
   </si>
   <si>
-    <t>gifts</t>
+    <t>gift certificate</t>
   </si>
 </sst>
 </file>
@@ -76,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,6 +105,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -104,46 +128,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,23 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,8 +160,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -197,44 +244,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,67 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,115 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,21 +449,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,9 +502,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,23 +549,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,148 +569,145 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1016,88 +1028,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="32.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
